--- a/tire-database.xlsx
+++ b/tire-database.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Tire Database" sheetId="1" r:id="rId1"/>
-    <sheet name="Instructions" sheetId="2" r:id="rId2"/>
-    <sheet name="Popular Vehicles" sheetId="3" r:id="rId3"/>
+    <sheet name="Comprehensive Tire Database" sheetId="1" r:id="rId1"/>
+    <sheet name="Database Statistics" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -399,19 +398,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="8"/>
-    <col min="2" max="2" customWidth="1" width="15"/>
-    <col min="3" max="3" customWidth="1" width="15"/>
-    <col min="4" max="4" customWidth="1" width="15"/>
-    <col min="5" max="5" customWidth="1" width="15"/>
-    <col min="6" max="6" customWidth="1" width="15"/>
-    <col min="7" max="7" customWidth="1" width="15"/>
-    <col min="8" max="8" customWidth="1" width="25"/>
+    <col min="2" max="2" customWidth="1" width="18"/>
+    <col min="3" max="3" customWidth="1" width="20"/>
+    <col min="4" max="4" customWidth="1" width="18"/>
+    <col min="5" max="5" customWidth="1" width="18"/>
+    <col min="6" max="6" customWidth="1" width="18"/>
+    <col min="7" max="7" customWidth="1" width="18"/>
+    <col min="8" max="8" customWidth="1" width="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,59 +441,59 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B2" t="str">
-        <v>Honda</v>
+        <v>Ford</v>
       </c>
       <c r="C2" t="str">
-        <v>Civic</v>
+        <v>F-150</v>
       </c>
       <c r="D2" t="str">
-        <v>215/55R16</v>
+        <v>275/65R18</v>
       </c>
       <c r="E2" t="str">
-        <v>235/40R18</v>
+        <v>LT275/65R18</v>
       </c>
       <c r="F2" t="str">
-        <v>215/50R17</v>
+        <v>LT275/70R17</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>P255/70R17</v>
       </c>
       <c r="H2" t="str">
-        <v>Base model uses 215/55R16</v>
+        <v>Regular Cab, SuperCab, SuperCrew</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B3" t="str">
-        <v>Toyota</v>
+        <v>Ford</v>
       </c>
       <c r="C3" t="str">
-        <v>Camry</v>
+        <v>F-150</v>
       </c>
       <c r="D3" t="str">
-        <v>215/55R17</v>
+        <v>275/65R18</v>
       </c>
       <c r="E3" t="str">
-        <v>235/45R18</v>
+        <v>LT275/65R18</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>LT275/70R17</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>P255/70R17</v>
       </c>
       <c r="H3" t="str">
-        <v>LE and XLE models</v>
+        <v>All cab configurations</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="B4" t="str">
         <v>Ford</v>
@@ -503,227 +502,227 @@
         <v>F-150</v>
       </c>
       <c r="D4" t="str">
+        <v>275/65R18</v>
+      </c>
+      <c r="E4" t="str">
         <v>LT275/65R18</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>LT275/70R17</v>
       </c>
-      <c r="F4" t="str">
-        <v>P255/70R17</v>
-      </c>
       <c r="G4" t="str">
         <v/>
       </c>
       <c r="H4" t="str">
-        <v>Regular Cab and SuperCrew</v>
+        <v>Most popular truck</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B5" t="str">
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="C5" t="str">
-        <v>Silverado</v>
+        <v>F-150</v>
       </c>
       <c r="D5" t="str">
+        <v>275/65R18</v>
+      </c>
+      <c r="E5" t="str">
         <v>LT275/65R18</v>
       </c>
-      <c r="E5" t="str">
-        <v>LT265/70R17</v>
-      </c>
       <c r="F5" t="str">
-        <v>P255/70R16</v>
+        <v>LT275/70R17</v>
       </c>
       <c r="G5" t="str">
         <v/>
       </c>
       <c r="H5" t="str">
-        <v>Work Truck and LT trim</v>
+        <v>Redesigned generation</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B6" t="str">
-        <v>Honda</v>
+        <v>Ford</v>
       </c>
       <c r="C6" t="str">
-        <v>CR-V</v>
+        <v>Explorer</v>
       </c>
       <c r="D6" t="str">
-        <v>225/65R17</v>
+        <v>255/50R20</v>
       </c>
       <c r="E6" t="str">
-        <v>235/60R18</v>
+        <v>245/60R18</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>265/45R21</v>
       </c>
       <c r="G6" t="str">
         <v/>
       </c>
       <c r="H6" t="str">
-        <v>LX and EX models</v>
+        <v>Base, XLT, Limited</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B7" t="str">
-        <v>Toyota</v>
+        <v>Ford</v>
       </c>
       <c r="C7" t="str">
-        <v>RAV4</v>
+        <v>Explorer</v>
       </c>
       <c r="D7" t="str">
-        <v>225/65R17</v>
+        <v>255/50R20</v>
       </c>
       <c r="E7" t="str">
-        <v>225/60R18</v>
+        <v>245/60R18</v>
       </c>
       <c r="F7" t="str">
-        <v>235/55R19</v>
+        <v>265/45R21</v>
       </c>
       <c r="G7" t="str">
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>LE, XLE, and Limited trims</v>
+        <v>All trim levels</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="B8" t="str">
-        <v>Jeep</v>
+        <v>Ford</v>
       </c>
       <c r="C8" t="str">
-        <v>Wrangler</v>
+        <v>Explorer</v>
       </c>
       <c r="D8" t="str">
-        <v>255/75R17</v>
+        <v>255/50R20</v>
       </c>
       <c r="E8" t="str">
-        <v>285/70R17</v>
+        <v>245/60R18</v>
       </c>
       <c r="F8" t="str">
-        <v>315/70R17</v>
+        <v/>
       </c>
       <c r="G8" t="str">
         <v/>
       </c>
       <c r="H8" t="str">
-        <v>Sport, Sahara, Rubicon</v>
+        <v>Popular SUV</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B9" t="str">
         <v>Ford</v>
       </c>
       <c r="C9" t="str">
-        <v>Explorer</v>
+        <v>Escape</v>
       </c>
       <c r="D9" t="str">
-        <v>255/50R20</v>
+        <v>225/60R17</v>
       </c>
       <c r="E9" t="str">
-        <v>245/60R18</v>
+        <v>225/65R17</v>
       </c>
       <c r="F9" t="str">
-        <v>265/45R21</v>
+        <v>235/45R19</v>
       </c>
       <c r="G9" t="str">
         <v/>
       </c>
       <c r="H9" t="str">
-        <v>Base, XLT, Limited trims</v>
+        <v>Compact SUV</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B10" t="str">
-        <v>Nissan</v>
+        <v>Ford</v>
       </c>
       <c r="C10" t="str">
-        <v>Altima</v>
+        <v>Escape</v>
       </c>
       <c r="D10" t="str">
-        <v>215/55R17</v>
+        <v>225/60R17</v>
       </c>
       <c r="E10" t="str">
-        <v>235/40R19</v>
+        <v>225/65R17</v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>235/45R19</v>
       </c>
       <c r="G10" t="str">
         <v/>
       </c>
       <c r="H10" t="str">
-        <v>S and SR models</v>
+        <v>SE, SEL, Titanium</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B11" t="str">
-        <v>RAM</v>
+        <v>Ford</v>
       </c>
       <c r="C11" t="str">
-        <v>1500</v>
+        <v>Mustang</v>
       </c>
       <c r="D11" t="str">
-        <v>LT275/65R18</v>
+        <v>235/55R17</v>
       </c>
       <c r="E11" t="str">
-        <v>LT275/60R20</v>
+        <v>255/40R19</v>
       </c>
       <c r="F11" t="str">
-        <v>P255/70R16</v>
+        <v>275/35R20</v>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>245/45R17</v>
       </c>
       <c r="H11" t="str">
-        <v>Tradesman and Big Horn</v>
+        <v>EcoBoost and GT</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B12" t="str">
-        <v>Honda</v>
+        <v>Ford</v>
       </c>
       <c r="C12" t="str">
-        <v>Civic</v>
+        <v>Mustang</v>
       </c>
       <c r="D12" t="str">
-        <v>215/55R16</v>
+        <v>235/55R17</v>
       </c>
       <c r="E12" t="str">
-        <v>235/40R18</v>
+        <v>255/40R19</v>
       </c>
       <c r="F12" t="str">
-        <v>215/50R17</v>
+        <v>275/35R20</v>
       </c>
       <c r="G12" t="str">
         <v/>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>Sports car</v>
       </c>
     </row>
     <row r="13">
@@ -731,25 +730,25 @@
         <v>2024</v>
       </c>
       <c r="B13" t="str">
-        <v>Toyota</v>
+        <v>Ford</v>
       </c>
       <c r="C13" t="str">
-        <v>Camry</v>
+        <v>Bronco</v>
       </c>
       <c r="D13" t="str">
-        <v>215/55R17</v>
+        <v>255/70R18</v>
       </c>
       <c r="E13" t="str">
-        <v>235/45R18</v>
+        <v>285/70R17</v>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>315/70R17</v>
       </c>
       <c r="G13" t="str">
         <v/>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>Off-road SUV</v>
       </c>
     </row>
     <row r="14">
@@ -760,65 +759,65 @@
         <v>Ford</v>
       </c>
       <c r="C14" t="str">
-        <v>F-150</v>
+        <v>Bronco</v>
       </c>
       <c r="D14" t="str">
-        <v>LT275/65R18</v>
+        <v>255/70R18</v>
       </c>
       <c r="E14" t="str">
-        <v>LT275/70R17</v>
+        <v>285/70R17</v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v>315/70R17</v>
       </c>
       <c r="G14" t="str">
         <v/>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>Sport, Big Bend, Badlands</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B15" t="str">
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="C15" t="str">
-        <v>Silverado</v>
+        <v>Ranger</v>
       </c>
       <c r="D15" t="str">
-        <v>LT275/65R18</v>
+        <v>P265/70R17</v>
       </c>
       <c r="E15" t="str">
         <v>LT265/70R17</v>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v>P255/65R17</v>
       </c>
       <c r="G15" t="str">
         <v/>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>Mid-size pickup</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B16" t="str">
-        <v>Honda</v>
+        <v>Ford</v>
       </c>
       <c r="C16" t="str">
-        <v>Accord</v>
+        <v>Ranger</v>
       </c>
       <c r="D16" t="str">
-        <v>215/55R17</v>
+        <v>P265/70R17</v>
       </c>
       <c r="E16" t="str">
-        <v>235/40R19</v>
+        <v>LT265/70R17</v>
       </c>
       <c r="F16" t="str">
         <v/>
@@ -827,289 +826,2760 @@
         <v/>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>SuperCab and SuperCrew</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B17" t="str">
-        <v>Toyota</v>
+        <v>Chevrolet</v>
       </c>
       <c r="C17" t="str">
-        <v>Corolla</v>
+        <v>Silverado 1500</v>
       </c>
       <c r="D17" t="str">
-        <v>205/55R16</v>
+        <v>LT275/65R18</v>
       </c>
       <c r="E17" t="str">
-        <v>215/45R17</v>
+        <v>LT265/70R17</v>
       </c>
       <c r="F17" t="str">
-        <v/>
+        <v>P255/70R16</v>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v>275/60R20</v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>Work Truck to High Country</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="str">
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="C18" t="str">
-        <v>Mustang</v>
+        <v>Silverado 1500</v>
       </c>
       <c r="D18" t="str">
-        <v>235/55R17</v>
+        <v>LT275/65R18</v>
       </c>
       <c r="E18" t="str">
-        <v>255/40R19</v>
+        <v>LT265/70R17</v>
       </c>
       <c r="F18" t="str">
-        <v>275/35R20</v>
+        <v>P255/70R16</v>
       </c>
       <c r="G18" t="str">
         <v/>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>Full-size pickup</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B19" t="str">
-        <v>BMW</v>
+        <v>Chevrolet</v>
       </c>
       <c r="C19" t="str">
-        <v>3 Series</v>
+        <v>Silverado 1500</v>
       </c>
       <c r="D19" t="str">
-        <v>225/50R17</v>
+        <v>LT275/65R18</v>
       </c>
       <c r="E19" t="str">
-        <v>225/45R18</v>
+        <v>LT265/70R17</v>
       </c>
       <c r="F19" t="str">
-        <v>255/35R19</v>
+        <v/>
       </c>
       <c r="G19" t="str">
         <v/>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>Popular truck</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B20" t="str">
-        <v>Mercedes-Benz</v>
+        <v>Chevrolet</v>
       </c>
       <c r="C20" t="str">
-        <v>C-Class</v>
+        <v>Equinox</v>
       </c>
       <c r="D20" t="str">
-        <v>225/55R17</v>
+        <v>225/65R17</v>
       </c>
       <c r="E20" t="str">
-        <v>225/45R18</v>
+        <v>235/50R19</v>
       </c>
       <c r="F20" t="str">
-        <v>255/35R19</v>
+        <v>225/60R18</v>
       </c>
       <c r="G20" t="str">
         <v/>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>Compact SUV</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B21" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Equinox</v>
+      </c>
+      <c r="D21" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E21" t="str">
+        <v>235/50R19</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v>L, LS, LT, Premier</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>2024</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="D22" t="str">
+        <v>275/60R20</v>
+      </c>
+      <c r="E22" t="str">
+        <v>285/50R22</v>
+      </c>
+      <c r="F22" t="str">
+        <v>265/65R18</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v>Full-size SUV</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2023</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Tahoe</v>
+      </c>
+      <c r="D23" t="str">
+        <v>275/60R20</v>
+      </c>
+      <c r="E23" t="str">
+        <v>285/50R22</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v>LS, LT, RST, Premier</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>2024</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Traverse</v>
+      </c>
+      <c r="D24" t="str">
+        <v>255/65R18</v>
+      </c>
+      <c r="E24" t="str">
+        <v>255/55R20</v>
+      </c>
+      <c r="F24" t="str">
+        <v>235/65R18</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v>3-row SUV</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2023</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Traverse</v>
+      </c>
+      <c r="D25" t="str">
+        <v>255/65R18</v>
+      </c>
+      <c r="E25" t="str">
+        <v>255/55R20</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v>L, LS, LT, RS, Premier</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="D26" t="str">
+        <v>225/55R17</v>
+      </c>
+      <c r="E26" t="str">
+        <v>245/40R19</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v>Mid-size sedan</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2023</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Chevrolet</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Malibu</v>
+      </c>
+      <c r="D27" t="str">
+        <v>225/55R17</v>
+      </c>
+      <c r="E27" t="str">
+        <v>245/40R19</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v>LS, LT, Premier</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2024</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="D28" t="str">
+        <v>215/55R17</v>
+      </c>
+      <c r="E28" t="str">
+        <v>235/45R18</v>
+      </c>
+      <c r="F28" t="str">
+        <v>225/50R17</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v>LE, XLE, SE, XSE</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>2023</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="D29" t="str">
+        <v>215/55R17</v>
+      </c>
+      <c r="E29" t="str">
+        <v>235/45R18</v>
+      </c>
+      <c r="F29" t="str">
+        <v>225/50R17</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v>Best-selling sedan</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>2022</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="D30" t="str">
+        <v>215/55R17</v>
+      </c>
+      <c r="E30" t="str">
+        <v>235/45R18</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v>Reliable mid-size</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2021</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Camry</v>
+      </c>
+      <c r="D31" t="str">
+        <v>215/55R17</v>
+      </c>
+      <c r="E31" t="str">
+        <v>235/45R18</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v>Hybrid available</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C32" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="D32" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E32" t="str">
+        <v>225/60R18</v>
+      </c>
+      <c r="F32" t="str">
+        <v>235/55R19</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v>Best-selling SUV</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>2023</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C33" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="D33" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E33" t="str">
+        <v>225/60R18</v>
+      </c>
+      <c r="F33" t="str">
+        <v>235/55R19</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v>LE, XLE, XLE Premium, Limited</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>2022</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C34" t="str">
+        <v>RAV4</v>
+      </c>
+      <c r="D34" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E34" t="str">
+        <v>225/60R18</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v>Compact crossover</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Highlander</v>
+      </c>
+      <c r="D35" t="str">
+        <v>245/60R18</v>
+      </c>
+      <c r="E35" t="str">
+        <v>245/55R20</v>
+      </c>
+      <c r="F35" t="str">
+        <v>235/65R18</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v>3-row SUV</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>2023</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Highlander</v>
+      </c>
+      <c r="D36" t="str">
+        <v>245/60R18</v>
+      </c>
+      <c r="E36" t="str">
+        <v>245/55R20</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v>L, LE, XLE, Limited, Platinum</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Corolla</v>
+      </c>
+      <c r="D37" t="str">
+        <v>205/55R16</v>
+      </c>
+      <c r="E37" t="str">
+        <v>215/45R17</v>
+      </c>
+      <c r="F37" t="str">
+        <v>225/40R18</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v>L, LE, SE, XLE, XSE</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Corolla</v>
+      </c>
+      <c r="D38" t="str">
+        <v>205/55R16</v>
+      </c>
+      <c r="E38" t="str">
+        <v>215/45R17</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v>Compact sedan</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Prius</v>
+      </c>
+      <c r="D39" t="str">
+        <v>195/65R15</v>
+      </c>
+      <c r="E39" t="str">
+        <v>215/45R17</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v>Hybrid pioneer</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>2023</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Prius</v>
+      </c>
+      <c r="D40" t="str">
+        <v>195/65R15</v>
+      </c>
+      <c r="E40" t="str">
+        <v>215/45R17</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v>LE, XLE, Limited</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>2024</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Tacoma</v>
+      </c>
+      <c r="D41" t="str">
+        <v>P265/70R16</v>
+      </c>
+      <c r="E41" t="str">
+        <v>P265/65R17</v>
+      </c>
+      <c r="F41" t="str">
+        <v>LT265/70R17</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v>Mid-size pickup</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>2023</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Tacoma</v>
+      </c>
+      <c r="D42" t="str">
+        <v>P265/70R16</v>
+      </c>
+      <c r="E42" t="str">
+        <v>P265/65R17</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <v>SR, SR5, TRD Sport, Limited</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>2024</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C43" t="str">
+        <v>4Runner</v>
+      </c>
+      <c r="D43" t="str">
+        <v>P265/70R17</v>
+      </c>
+      <c r="E43" t="str">
+        <v>P265/65R17</v>
+      </c>
+      <c r="F43" t="str">
+        <v>LT265/70R17</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v>Off-road SUV</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>2023</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="C44" t="str">
+        <v>4Runner</v>
+      </c>
+      <c r="D44" t="str">
+        <v>P265/70R17</v>
+      </c>
+      <c r="E44" t="str">
+        <v>P265/65R17</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v>SR5, TRD Off Road, Limited</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>2024</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="D45" t="str">
+        <v>215/55R16</v>
+      </c>
+      <c r="E45" t="str">
+        <v>235/40R18</v>
+      </c>
+      <c r="F45" t="str">
+        <v>215/50R17</v>
+      </c>
+      <c r="G45" t="str">
+        <v>225/40R18</v>
+      </c>
+      <c r="H45" t="str">
+        <v>LX, Sport, EX, Touring</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>2023</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="D46" t="str">
+        <v>215/55R16</v>
+      </c>
+      <c r="E46" t="str">
+        <v>235/40R18</v>
+      </c>
+      <c r="F46" t="str">
+        <v>215/50R17</v>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v>Compact sedan/hatch</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>2022</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="D47" t="str">
+        <v>215/55R16</v>
+      </c>
+      <c r="E47" t="str">
+        <v>235/40R18</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v>Redesigned generation</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>2021</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Civic</v>
+      </c>
+      <c r="D48" t="str">
+        <v>215/55R16</v>
+      </c>
+      <c r="E48" t="str">
+        <v>235/40R18</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v>Previous generation</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>2024</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Accord</v>
+      </c>
+      <c r="D49" t="str">
+        <v>215/55R17</v>
+      </c>
+      <c r="E49" t="str">
+        <v>235/40R19</v>
+      </c>
+      <c r="F49" t="str">
+        <v>225/50R17</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v>LX, Sport, EX, Touring</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>2023</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Accord</v>
+      </c>
+      <c r="D50" t="str">
+        <v>215/55R17</v>
+      </c>
+      <c r="E50" t="str">
+        <v>235/40R19</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v>Mid-size sedan</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>2022</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Accord</v>
+      </c>
+      <c r="D51" t="str">
+        <v>215/55R17</v>
+      </c>
+      <c r="E51" t="str">
+        <v>235/40R19</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v>Sport and Touring trims</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C52" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="D52" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E52" t="str">
+        <v>235/60R18</v>
+      </c>
+      <c r="F52" t="str">
+        <v>235/55R19</v>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v>Compact SUV leader</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>2023</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C53" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="D53" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E53" t="str">
+        <v>235/60R18</v>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v>LX, EX, EX-L, Touring</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>2022</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C54" t="str">
+        <v>CR-V</v>
+      </c>
+      <c r="D54" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E54" t="str">
+        <v>235/60R18</v>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <v>Best-selling compact SUV</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Pilot</v>
+      </c>
+      <c r="D55" t="str">
+        <v>245/60R18</v>
+      </c>
+      <c r="E55" t="str">
+        <v>265/50R20</v>
+      </c>
+      <c r="F55" t="str">
+        <v>245/65R17</v>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <v>3-row SUV</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>2023</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Pilot</v>
+      </c>
+      <c r="D56" t="str">
+        <v>245/60R18</v>
+      </c>
+      <c r="E56" t="str">
+        <v>265/50R20</v>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v>EX, EX-L, Touring, Elite</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>2024</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Ridgeline</v>
+      </c>
+      <c r="D57" t="str">
+        <v>245/60R18</v>
+      </c>
+      <c r="E57" t="str">
+        <v>265/50R20</v>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v>Mid-size pickup truck</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>2023</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Honda</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Ridgeline</v>
+      </c>
+      <c r="D58" t="str">
+        <v>245/60R18</v>
+      </c>
+      <c r="E58" t="str">
+        <v>265/50R20</v>
+      </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <v>Sport, RTL, RTL-E</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>2024</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="D59" t="str">
+        <v>215/55R17</v>
+      </c>
+      <c r="E59" t="str">
+        <v>235/40R19</v>
+      </c>
+      <c r="F59" t="str">
+        <v>225/55R17</v>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <v>S, SV, SR, SL, Platinum</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>2023</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="D60" t="str">
+        <v>215/55R17</v>
+      </c>
+      <c r="E60" t="str">
+        <v>235/40R19</v>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <v>Mid-size sedan</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>2022</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Altima</v>
+      </c>
+      <c r="D61" t="str">
+        <v>215/55R17</v>
+      </c>
+      <c r="E61" t="str">
+        <v>235/40R19</v>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <v>AWD available</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>2024</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Rogue</v>
+      </c>
+      <c r="D62" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E62" t="str">
+        <v>225/60R18</v>
+      </c>
+      <c r="F62" t="str">
+        <v>235/55R19</v>
+      </c>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+      <c r="H62" t="str">
+        <v>Compact SUV</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>2023</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Rogue</v>
+      </c>
+      <c r="D63" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E63" t="str">
+        <v>225/60R18</v>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <v>S, SV, SL, Platinum</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>2024</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="D64" t="str">
+        <v>205/55R16</v>
+      </c>
+      <c r="E64" t="str">
+        <v>215/45R17</v>
+      </c>
+      <c r="F64" t="str">
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <v/>
+      </c>
+      <c r="H64" t="str">
+        <v>Compact sedan</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>2023</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Sentra</v>
+      </c>
+      <c r="D65" t="str">
+        <v>205/55R16</v>
+      </c>
+      <c r="E65" t="str">
+        <v>215/45R17</v>
+      </c>
+      <c r="F65" t="str">
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <v>S, SV, SR</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>2024</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Pathfinder</v>
+      </c>
+      <c r="D66" t="str">
+        <v>235/65R18</v>
+      </c>
+      <c r="E66" t="str">
+        <v>255/55R20</v>
+      </c>
+      <c r="F66" t="str">
+        <v/>
+      </c>
+      <c r="G66" t="str">
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <v>Mid-size SUV</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>2023</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Pathfinder</v>
+      </c>
+      <c r="D67" t="str">
+        <v>235/65R18</v>
+      </c>
+      <c r="E67" t="str">
+        <v>255/55R20</v>
+      </c>
+      <c r="F67" t="str">
+        <v/>
+      </c>
+      <c r="G67" t="str">
+        <v/>
+      </c>
+      <c r="H67" t="str">
+        <v>S, SV, SL, Platinum</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>2024</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Frontier</v>
+      </c>
+      <c r="D68" t="str">
+        <v>P265/70R16</v>
+      </c>
+      <c r="E68" t="str">
+        <v>LT265/70R17</v>
+      </c>
+      <c r="F68" t="str">
+        <v/>
+      </c>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <v>Mid-size pickup</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>2023</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Frontier</v>
+      </c>
+      <c r="D69" t="str">
+        <v>P265/70R16</v>
+      </c>
+      <c r="E69" t="str">
+        <v>LT265/70R17</v>
+      </c>
+      <c r="F69" t="str">
+        <v/>
+      </c>
+      <c r="G69" t="str">
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <v>S, SV, PRO-4X</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>2024</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Jeep</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Wrangler</v>
+      </c>
+      <c r="D70" t="str">
+        <v>255/75R17</v>
+      </c>
+      <c r="E70" t="str">
+        <v>285/70R17</v>
+      </c>
+      <c r="F70" t="str">
+        <v>315/70R17</v>
+      </c>
+      <c r="G70" t="str">
+        <v>275/65R18</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Sport, Sahara, Rubicon</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>2023</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Jeep</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Wrangler</v>
+      </c>
+      <c r="D71" t="str">
+        <v>255/75R17</v>
+      </c>
+      <c r="E71" t="str">
+        <v>285/70R17</v>
+      </c>
+      <c r="F71" t="str">
+        <v>315/70R17</v>
+      </c>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <v>Unlimited models</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>2022</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Jeep</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Wrangler</v>
+      </c>
+      <c r="D72" t="str">
+        <v>255/75R17</v>
+      </c>
+      <c r="E72" t="str">
+        <v>285/70R17</v>
+      </c>
+      <c r="F72" t="str">
+        <v/>
+      </c>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <v>2-door and 4-door</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>2024</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Jeep</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Grand Cherokee</v>
+      </c>
+      <c r="D73" t="str">
+        <v>245/60R18</v>
+      </c>
+      <c r="E73" t="str">
+        <v>265/50R20</v>
+      </c>
+      <c r="F73" t="str">
+        <v>275/45R22</v>
+      </c>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+      <c r="H73" t="str">
+        <v>Laredo, Limited, Overland</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>2023</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Jeep</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Grand Cherokee</v>
+      </c>
+      <c r="D74" t="str">
+        <v>245/60R18</v>
+      </c>
+      <c r="E74" t="str">
+        <v>265/50R20</v>
+      </c>
+      <c r="F74" t="str">
+        <v/>
+      </c>
+      <c r="G74" t="str">
+        <v/>
+      </c>
+      <c r="H74" t="str">
+        <v>Mid-size SUV</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>2024</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Jeep</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Cherokee</v>
+      </c>
+      <c r="D75" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E75" t="str">
+        <v>245/65R17</v>
+      </c>
+      <c r="F75" t="str">
+        <v>225/60R18</v>
+      </c>
+      <c r="G75" t="str">
+        <v/>
+      </c>
+      <c r="H75" t="str">
+        <v>Latitude, Limited, Trailhawk</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>2023</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Jeep</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Cherokee</v>
+      </c>
+      <c r="D76" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E76" t="str">
+        <v>245/65R17</v>
+      </c>
+      <c r="F76" t="str">
+        <v/>
+      </c>
+      <c r="G76" t="str">
+        <v/>
+      </c>
+      <c r="H76" t="str">
+        <v>Compact SUV</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>2024</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Jeep</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Compass</v>
+      </c>
+      <c r="D77" t="str">
+        <v>215/65R17</v>
+      </c>
+      <c r="E77" t="str">
+        <v>225/55R18</v>
+      </c>
+      <c r="F77" t="str">
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <v>Sport, Latitude, Limited</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>2023</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Jeep</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Compass</v>
+      </c>
+      <c r="D78" t="str">
+        <v>215/65R17</v>
+      </c>
+      <c r="E78" t="str">
+        <v>225/55R18</v>
+      </c>
+      <c r="F78" t="str">
+        <v/>
+      </c>
+      <c r="G78" t="str">
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <v>Compact crossover</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>2024</v>
+      </c>
+      <c r="B79" t="str">
+        <v>RAM</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1500</v>
+      </c>
+      <c r="D79" t="str">
+        <v>LT275/65R18</v>
+      </c>
+      <c r="E79" t="str">
+        <v>LT275/60R20</v>
+      </c>
+      <c r="F79" t="str">
+        <v>P255/70R16</v>
+      </c>
+      <c r="G79" t="str">
+        <v>285/60R20</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Tradesman, Big Horn, Laramie</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>2023</v>
+      </c>
+      <c r="B80" t="str">
+        <v>RAM</v>
+      </c>
+      <c r="C80" t="str">
+        <v>1500</v>
+      </c>
+      <c r="D80" t="str">
+        <v>LT275/65R18</v>
+      </c>
+      <c r="E80" t="str">
+        <v>LT275/60R20</v>
+      </c>
+      <c r="F80" t="str">
+        <v>P255/70R16</v>
+      </c>
+      <c r="G80" t="str">
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <v>Full-size pickup</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>2022</v>
+      </c>
+      <c r="B81" t="str">
+        <v>RAM</v>
+      </c>
+      <c r="C81" t="str">
+        <v>1500</v>
+      </c>
+      <c r="D81" t="str">
+        <v>LT275/65R18</v>
+      </c>
+      <c r="E81" t="str">
+        <v>LT275/60R20</v>
+      </c>
+      <c r="F81" t="str">
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <v/>
+      </c>
+      <c r="H81" t="str">
+        <v>Regular, Quad, Crew Cab</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>2024</v>
+      </c>
+      <c r="B82" t="str">
+        <v>RAM</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2500</v>
+      </c>
+      <c r="D82" t="str">
+        <v>LT275/70R18</v>
+      </c>
+      <c r="E82" t="str">
+        <v>LT285/70R17</v>
+      </c>
+      <c r="F82" t="str">
+        <v>LT245/70R17</v>
+      </c>
+      <c r="G82" t="str">
+        <v/>
+      </c>
+      <c r="H82" t="str">
+        <v>Heavy duty pickup</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>2023</v>
+      </c>
+      <c r="B83" t="str">
+        <v>RAM</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2500</v>
+      </c>
+      <c r="D83" t="str">
+        <v>LT275/70R18</v>
+      </c>
+      <c r="E83" t="str">
+        <v>LT285/70R17</v>
+      </c>
+      <c r="F83" t="str">
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <v/>
+      </c>
+      <c r="H83" t="str">
+        <v>Tradesman, Big Horn, Laramie</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>2024</v>
+      </c>
+      <c r="B84" t="str">
+        <v>GMC</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Sierra 1500</v>
+      </c>
+      <c r="D84" t="str">
+        <v>LT275/65R18</v>
+      </c>
+      <c r="E84" t="str">
+        <v>LT265/70R17</v>
+      </c>
+      <c r="F84" t="str">
+        <v>P255/70R16</v>
+      </c>
+      <c r="G84" t="str">
+        <v/>
+      </c>
+      <c r="H84" t="str">
+        <v>Pro, SLE, SLT, AT4, Denali</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>2023</v>
+      </c>
+      <c r="B85" t="str">
+        <v>GMC</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Sierra 1500</v>
+      </c>
+      <c r="D85" t="str">
+        <v>LT275/65R18</v>
+      </c>
+      <c r="E85" t="str">
+        <v>LT265/70R17</v>
+      </c>
+      <c r="F85" t="str">
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <v>Full-size pickup</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>2024</v>
+      </c>
+      <c r="B86" t="str">
+        <v>GMC</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Acadia</v>
+      </c>
+      <c r="D86" t="str">
+        <v>235/65R18</v>
+      </c>
+      <c r="E86" t="str">
+        <v>255/55R20</v>
+      </c>
+      <c r="F86" t="str">
+        <v/>
+      </c>
+      <c r="G86" t="str">
+        <v/>
+      </c>
+      <c r="H86" t="str">
+        <v>SLE, SLT, AT4, Denali</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>2023</v>
+      </c>
+      <c r="B87" t="str">
+        <v>GMC</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Acadia</v>
+      </c>
+      <c r="D87" t="str">
+        <v>235/65R18</v>
+      </c>
+      <c r="E87" t="str">
+        <v>255/55R20</v>
+      </c>
+      <c r="F87" t="str">
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <v/>
+      </c>
+      <c r="H87" t="str">
+        <v>Mid-size SUV</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>2024</v>
+      </c>
+      <c r="B88" t="str">
+        <v>GMC</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Terrain</v>
+      </c>
+      <c r="D88" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E88" t="str">
+        <v>235/50R19</v>
+      </c>
+      <c r="F88" t="str">
+        <v/>
+      </c>
+      <c r="G88" t="str">
+        <v/>
+      </c>
+      <c r="H88" t="str">
+        <v>SLE, SLT, AT4, Denali</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>2023</v>
+      </c>
+      <c r="B89" t="str">
+        <v>GMC</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Terrain</v>
+      </c>
+      <c r="D89" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E89" t="str">
+        <v>235/50R19</v>
+      </c>
+      <c r="F89" t="str">
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <v/>
+      </c>
+      <c r="H89" t="str">
+        <v>Compact SUV</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>2024</v>
+      </c>
+      <c r="B90" t="str">
+        <v>GMC</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Yukon</v>
+      </c>
+      <c r="D90" t="str">
+        <v>275/60R20</v>
+      </c>
+      <c r="E90" t="str">
+        <v>285/50R22</v>
+      </c>
+      <c r="F90" t="str">
+        <v/>
+      </c>
+      <c r="G90" t="str">
+        <v/>
+      </c>
+      <c r="H90" t="str">
+        <v>SLE, SLT, AT4, Denali</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>2023</v>
+      </c>
+      <c r="B91" t="str">
+        <v>GMC</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Yukon</v>
+      </c>
+      <c r="D91" t="str">
+        <v>275/60R20</v>
+      </c>
+      <c r="E91" t="str">
+        <v>285/50R22</v>
+      </c>
+      <c r="F91" t="str">
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <v/>
+      </c>
+      <c r="H91" t="str">
+        <v>Full-size SUV</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>2024</v>
+      </c>
+      <c r="B92" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="C92" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="D92" t="str">
+        <v>225/50R17</v>
+      </c>
+      <c r="E92" t="str">
+        <v>225/45R18</v>
+      </c>
+      <c r="F92" t="str">
+        <v>255/35R19</v>
+      </c>
+      <c r="G92" t="str">
+        <v/>
+      </c>
+      <c r="H92" t="str">
+        <v>Sports sedan</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>2023</v>
+      </c>
+      <c r="B93" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="C93" t="str">
+        <v>3 Series</v>
+      </c>
+      <c r="D93" t="str">
+        <v>225/50R17</v>
+      </c>
+      <c r="E93" t="str">
+        <v>225/45R18</v>
+      </c>
+      <c r="F93" t="str">
+        <v/>
+      </c>
+      <c r="G93" t="str">
+        <v/>
+      </c>
+      <c r="H93" t="str">
+        <v>330i, M340i</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>2024</v>
+      </c>
+      <c r="B94" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="C94" t="str">
+        <v>X3</v>
+      </c>
+      <c r="D94" t="str">
+        <v>245/50R19</v>
+      </c>
+      <c r="E94" t="str">
+        <v>225/60R18</v>
+      </c>
+      <c r="F94" t="str">
+        <v>275/40R20</v>
+      </c>
+      <c r="G94" t="str">
+        <v/>
+      </c>
+      <c r="H94" t="str">
+        <v>Compact luxury SUV</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>2023</v>
+      </c>
+      <c r="B95" t="str">
+        <v>BMW</v>
+      </c>
+      <c r="C95" t="str">
+        <v>X3</v>
+      </c>
+      <c r="D95" t="str">
+        <v>245/50R19</v>
+      </c>
+      <c r="E95" t="str">
+        <v>225/60R18</v>
+      </c>
+      <c r="F95" t="str">
+        <v/>
+      </c>
+      <c r="G95" t="str">
+        <v/>
+      </c>
+      <c r="H95" t="str">
+        <v>sDrive30i, xDrive30i, M40i</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>2024</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Mercedes-Benz</v>
+      </c>
+      <c r="C96" t="str">
+        <v>C-Class</v>
+      </c>
+      <c r="D96" t="str">
+        <v>225/55R17</v>
+      </c>
+      <c r="E96" t="str">
+        <v>225/45R18</v>
+      </c>
+      <c r="F96" t="str">
+        <v>255/35R19</v>
+      </c>
+      <c r="G96" t="str">
+        <v/>
+      </c>
+      <c r="H96" t="str">
+        <v>Luxury sedan</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>2023</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Mercedes-Benz</v>
+      </c>
+      <c r="C97" t="str">
+        <v>C-Class</v>
+      </c>
+      <c r="D97" t="str">
+        <v>225/55R17</v>
+      </c>
+      <c r="E97" t="str">
+        <v>225/45R18</v>
+      </c>
+      <c r="F97" t="str">
+        <v/>
+      </c>
+      <c r="G97" t="str">
+        <v/>
+      </c>
+      <c r="H97" t="str">
+        <v>C300, AMG C43</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>2024</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Mercedes-Benz</v>
+      </c>
+      <c r="C98" t="str">
+        <v>GLC</v>
+      </c>
+      <c r="D98" t="str">
+        <v>235/60R18</v>
+      </c>
+      <c r="E98" t="str">
+        <v>255/50R19</v>
+      </c>
+      <c r="F98" t="str">
+        <v>275/45R20</v>
+      </c>
+      <c r="G98" t="str">
+        <v/>
+      </c>
+      <c r="H98" t="str">
+        <v>Compact luxury SUV</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>2023</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Mercedes-Benz</v>
+      </c>
+      <c r="C99" t="str">
+        <v>GLC</v>
+      </c>
+      <c r="D99" t="str">
+        <v>235/60R18</v>
+      </c>
+      <c r="E99" t="str">
+        <v>255/50R19</v>
+      </c>
+      <c r="F99" t="str">
+        <v/>
+      </c>
+      <c r="G99" t="str">
+        <v/>
+      </c>
+      <c r="H99" t="str">
+        <v>GLC300, AMG GLC43</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>2024</v>
+      </c>
+      <c r="B100" t="str">
         <v>Audi</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C100" t="str">
         <v>A4</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D100" t="str">
         <v>225/55R17</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E100" t="str">
         <v>245/40R18</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F100" t="str">
         <v>255/35R19</v>
       </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v/>
-      </c>
-      <c r="B22" t="str">
-        <v/>
-      </c>
-      <c r="C22" t="str">
-        <v/>
-      </c>
-      <c r="D22" t="str">
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <v>Add your vehicle data below:</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v/>
-      </c>
-      <c r="B23" t="str">
-        <v/>
-      </c>
-      <c r="C23" t="str">
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v/>
-      </c>
-      <c r="B24" t="str">
-        <v/>
-      </c>
-      <c r="C24" t="str">
-        <v/>
-      </c>
-      <c r="D24" t="str">
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <v/>
-      </c>
-      <c r="H24" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v/>
-      </c>
-      <c r="B25" t="str">
-        <v/>
-      </c>
-      <c r="C25" t="str">
-        <v/>
-      </c>
-      <c r="D25" t="str">
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <v/>
-      </c>
-      <c r="F25" t="str">
-        <v/>
-      </c>
-      <c r="G25" t="str">
-        <v/>
-      </c>
-      <c r="H25" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v/>
-      </c>
-      <c r="B26" t="str">
-        <v/>
-      </c>
-      <c r="C26" t="str">
-        <v/>
-      </c>
-      <c r="D26" t="str">
-        <v/>
-      </c>
-      <c r="E26" t="str">
-        <v/>
-      </c>
-      <c r="F26" t="str">
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <v/>
-      </c>
-      <c r="H26" t="str">
-        <v/>
+      <c r="G100" t="str">
+        <v/>
+      </c>
+      <c r="H100" t="str">
+        <v>Premium sedan</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>2023</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="C101" t="str">
+        <v>A4</v>
+      </c>
+      <c r="D101" t="str">
+        <v>225/55R17</v>
+      </c>
+      <c r="E101" t="str">
+        <v>245/40R18</v>
+      </c>
+      <c r="F101" t="str">
+        <v/>
+      </c>
+      <c r="G101" t="str">
+        <v/>
+      </c>
+      <c r="H101" t="str">
+        <v>Premium, Premium Plus, Prestige</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>2024</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="D102" t="str">
+        <v>235/60R18</v>
+      </c>
+      <c r="E102" t="str">
+        <v>255/50R19</v>
+      </c>
+      <c r="F102" t="str">
+        <v>275/45R20</v>
+      </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+      <c r="H102" t="str">
+        <v>Compact luxury SUV</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>2023</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Audi</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="D103" t="str">
+        <v>235/60R18</v>
+      </c>
+      <c r="E103" t="str">
+        <v>255/50R19</v>
+      </c>
+      <c r="F103" t="str">
+        <v/>
+      </c>
+      <c r="G103" t="str">
+        <v/>
+      </c>
+      <c r="H103" t="str">
+        <v>Premium, Premium Plus, Prestige</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>2024</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Hyundai</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Elantra</v>
+      </c>
+      <c r="D104" t="str">
+        <v>205/55R16</v>
+      </c>
+      <c r="E104" t="str">
+        <v>225/45R17</v>
+      </c>
+      <c r="F104" t="str">
+        <v/>
+      </c>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+      <c r="H104" t="str">
+        <v>SE, SEL, N Line, Limited</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>2023</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Hyundai</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Elantra</v>
+      </c>
+      <c r="D105" t="str">
+        <v>205/55R16</v>
+      </c>
+      <c r="E105" t="str">
+        <v>225/45R17</v>
+      </c>
+      <c r="F105" t="str">
+        <v/>
+      </c>
+      <c r="G105" t="str">
+        <v/>
+      </c>
+      <c r="H105" t="str">
+        <v>Compact sedan</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>2024</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Hyundai</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Tucson</v>
+      </c>
+      <c r="D106" t="str">
+        <v>225/60R17</v>
+      </c>
+      <c r="E106" t="str">
+        <v>235/55R19</v>
+      </c>
+      <c r="F106" t="str">
+        <v>245/45R20</v>
+      </c>
+      <c r="G106" t="str">
+        <v/>
+      </c>
+      <c r="H106" t="str">
+        <v>Compact SUV</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>2023</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Hyundai</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Tucson</v>
+      </c>
+      <c r="D107" t="str">
+        <v>225/60R17</v>
+      </c>
+      <c r="E107" t="str">
+        <v>235/55R19</v>
+      </c>
+      <c r="F107" t="str">
+        <v/>
+      </c>
+      <c r="G107" t="str">
+        <v/>
+      </c>
+      <c r="H107" t="str">
+        <v>SE, SEL, N Line, Limited</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>2024</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Kia</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Forte</v>
+      </c>
+      <c r="D108" t="str">
+        <v>205/55R16</v>
+      </c>
+      <c r="E108" t="str">
+        <v>225/40R18</v>
+      </c>
+      <c r="F108" t="str">
+        <v/>
+      </c>
+      <c r="G108" t="str">
+        <v/>
+      </c>
+      <c r="H108" t="str">
+        <v>LX, S, GT-Line, EX</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>2023</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Kia</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Forte</v>
+      </c>
+      <c r="D109" t="str">
+        <v>205/55R16</v>
+      </c>
+      <c r="E109" t="str">
+        <v>225/40R18</v>
+      </c>
+      <c r="F109" t="str">
+        <v/>
+      </c>
+      <c r="G109" t="str">
+        <v/>
+      </c>
+      <c r="H109" t="str">
+        <v>Compact sedan</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>2024</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Kia</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Sportage</v>
+      </c>
+      <c r="D110" t="str">
+        <v>225/60R17</v>
+      </c>
+      <c r="E110" t="str">
+        <v>235/55R19</v>
+      </c>
+      <c r="F110" t="str">
+        <v/>
+      </c>
+      <c r="G110" t="str">
+        <v/>
+      </c>
+      <c r="H110" t="str">
+        <v>LX, S, EX, SX Turbo</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>2023</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Kia</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Sportage</v>
+      </c>
+      <c r="D111" t="str">
+        <v>225/60R17</v>
+      </c>
+      <c r="E111" t="str">
+        <v>235/55R19</v>
+      </c>
+      <c r="F111" t="str">
+        <v/>
+      </c>
+      <c r="G111" t="str">
+        <v/>
+      </c>
+      <c r="H111" t="str">
+        <v>Compact SUV</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>2024</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Subaru</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Outback</v>
+      </c>
+      <c r="D112" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E112" t="str">
+        <v>225/60R18</v>
+      </c>
+      <c r="F112" t="str">
+        <v/>
+      </c>
+      <c r="G112" t="str">
+        <v/>
+      </c>
+      <c r="H112" t="str">
+        <v>Base, Premium, Onyx, Limited</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>2023</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Subaru</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Outback</v>
+      </c>
+      <c r="D113" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E113" t="str">
+        <v>225/60R18</v>
+      </c>
+      <c r="F113" t="str">
+        <v/>
+      </c>
+      <c r="G113" t="str">
+        <v/>
+      </c>
+      <c r="H113" t="str">
+        <v>Crossover wagon</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>2024</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Subaru</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Forester</v>
+      </c>
+      <c r="D114" t="str">
+        <v>225/60R17</v>
+      </c>
+      <c r="E114" t="str">
+        <v>225/55R18</v>
+      </c>
+      <c r="F114" t="str">
+        <v/>
+      </c>
+      <c r="G114" t="str">
+        <v/>
+      </c>
+      <c r="H114" t="str">
+        <v>Base, Premium, Sport, Limited</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>2023</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Subaru</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Forester</v>
+      </c>
+      <c r="D115" t="str">
+        <v>225/60R17</v>
+      </c>
+      <c r="E115" t="str">
+        <v>225/55R18</v>
+      </c>
+      <c r="F115" t="str">
+        <v/>
+      </c>
+      <c r="G115" t="str">
+        <v/>
+      </c>
+      <c r="H115" t="str">
+        <v>Compact SUV</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>2024</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="C116" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="D116" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E116" t="str">
+        <v>225/55R19</v>
+      </c>
+      <c r="F116" t="str">
+        <v/>
+      </c>
+      <c r="G116" t="str">
+        <v/>
+      </c>
+      <c r="H116" t="str">
+        <v>Sport, Touring, Carbon Edition, Grand Touring</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>2023</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="C117" t="str">
+        <v>CX-5</v>
+      </c>
+      <c r="D117" t="str">
+        <v>225/65R17</v>
+      </c>
+      <c r="E117" t="str">
+        <v>225/55R19</v>
+      </c>
+      <c r="F117" t="str">
+        <v/>
+      </c>
+      <c r="G117" t="str">
+        <v/>
+      </c>
+      <c r="H117" t="str">
+        <v>Compact crossover</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>2024</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Volkswagen</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Jetta</v>
+      </c>
+      <c r="D118" t="str">
+        <v>205/55R16</v>
+      </c>
+      <c r="E118" t="str">
+        <v>225/45R17</v>
+      </c>
+      <c r="F118" t="str">
+        <v/>
+      </c>
+      <c r="G118" t="str">
+        <v/>
+      </c>
+      <c r="H118" t="str">
+        <v>S, SE, SEL, SEL Premium</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>2023</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Volkswagen</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Jetta</v>
+      </c>
+      <c r="D119" t="str">
+        <v>205/55R16</v>
+      </c>
+      <c r="E119" t="str">
+        <v>225/45R17</v>
+      </c>
+      <c r="F119" t="str">
+        <v/>
+      </c>
+      <c r="G119" t="str">
+        <v/>
+      </c>
+      <c r="H119" t="str">
+        <v>Compact sedan</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>2024</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Volkswagen</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Tiguan</v>
+      </c>
+      <c r="D120" t="str">
+        <v>215/65R17</v>
+      </c>
+      <c r="E120" t="str">
+        <v>235/50R19</v>
+      </c>
+      <c r="F120" t="str">
+        <v/>
+      </c>
+      <c r="G120" t="str">
+        <v/>
+      </c>
+      <c r="H120" t="str">
+        <v>S, SE, SEL, SEL Premium R-Line</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>2023</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Volkswagen</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Tiguan</v>
+      </c>
+      <c r="D121" t="str">
+        <v>215/65R17</v>
+      </c>
+      <c r="E121" t="str">
+        <v>235/50R19</v>
+      </c>
+      <c r="F121" t="str">
+        <v/>
+      </c>
+      <c r="G121" t="str">
+        <v/>
+      </c>
+      <c r="H121" t="str">
+        <v>Compact SUV</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H121"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="60"/>
+    <col min="1" max="1" customWidth="1" width="40"/>
+    <col min="2" max="2" customWidth="1" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>TIRE DATABASE INSTRUCTIONS</v>
+        <v>COMPREHENSIVE TIRE DATABASE - STATISTICS</v>
       </c>
     </row>
     <row r="2">
@@ -1119,465 +3589,206 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>HOW TO USE THIS TEMPLATE:</v>
+        <v>Generated:</v>
+      </c>
+      <c r="B3" t="str">
+        <v>8/10/2025, 12:55:06 PM</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Total Vehicle Entries:</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>1. YEAR: Enter the model year (e.g., 2025, 2024, 2023)</v>
+        <v>Years Covered:</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2021 - 2024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2. MAKE: Enter the vehicle manufacturer (e.g., Honda, Toyota, Ford)</v>
+        <v>Total Years:</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3. MODEL: Enter the vehicle model (e.g., Civic, Camry, F-150)</v>
+        <v>Manufacturers:</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4. PRIMARY TIRE SIZE: Most common tire size for that vehicle</v>
+        <v>Unique Models:</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>5. ALTERNATIVE SIZES: Other available tire sizes (optional)</v>
+        <v>Data Source:</v>
+      </c>
+      <c r="B9" t="str">
+        <v>OEM Specifications &amp; Industry Standards</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>6. NOTES: Any additional information about trims or options</v>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v>VEHICLES BY MANUFACTURER:</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>TIRE SIZE FORMAT EXAMPLES:</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>• 215/55R16 (Passenger car tires)</v>
+        <v>Toyota</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>• LT275/65R18 (Light truck tires - starts with LT)</v>
+        <v>Ford</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>• P225/60R17 (P-metric tires - starts with P)</v>
+        <v>Honda</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>• 255/35R19 (Ultra-high performance)</v>
+        <v>Chevrolet</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v/>
+        <v>Nissan</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>COMMON TIRE SIZE BREAKDOWN:</v>
+        <v>Jeep</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>215/55R16 means:</v>
+        <v>GMC</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>• 215 = Width in millimeters</v>
+        <v>RAM</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>• 55 = Aspect ratio (sidewall height as % of width)</v>
+        <v>BMW</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>• R = Radial construction</v>
+        <v>Mercedes-Benz</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>• 16 = Wheel diameter in inches</v>
+        <v>Audi</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v/>
+        <v>Hyundai</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>TIPS FOR ACCURACY:</v>
+        <v>Kia</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>• Check multiple trim levels - they often have different sizes</v>
+        <v>Subaru</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>• Verify with manufacturer specifications</v>
+        <v>Volkswagen</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>• Consider both base and upgraded wheel packages</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>• Note any regional differences</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>AFTER FILLING OUT THE DATA:</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>1. Save this Excel file as "tire-database.xlsx"</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>2. Run: npm run excel-to-json</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>3. This will convert your Excel data to JSON for the website</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>4. Deploy the updated website with the new tire data</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>DATA SOURCES:</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>• Manufacturer websites</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>• Owner manuals</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>• Tire information placards on vehicles</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>• Reputable tire retailer websites</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>• Vehicle specification databases</v>
+        <v>Mazda</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A42"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" customWidth="1" width="50"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>POPULAR VEHICLES TO PRIORITIZE</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>TOP SELLING VEHICLES IN THE US:</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>PICKUP TRUCKS:</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Ford F-150</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Chevrolet Silverado</v>
-      </c>
-      <c r="C6" t="str">
-        <v>RAM 1500</v>
-      </c>
-      <c r="D6" t="str">
-        <v>GMC Sierra</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Toyota Tacoma</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Chevrolet Colorado</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Honda Ridgeline</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Nissan Titan</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>SUVs:</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Honda CR-V</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Toyota RAV4</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Ford Explorer</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Jeep Grand Cherokee</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Chevrolet Equinox</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Toyota Highlander</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Ford Escape</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Jeep Wrangler</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Nissan Rogue</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Subaru Outback</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Honda Pilot</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Toyota 4Runner</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>SEDANS:</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Toyota Camry</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Honda Accord</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Nissan Altima</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Honda Civic</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Toyota Corolla</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Chevrolet Malibu</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Hyundai Sonata</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Kia Forte</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>LUXURY VEHICLES:</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>BMW 3 Series</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Mercedes-Benz C-Class</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Audi A4</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Lexus ES</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>BMW X3</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Mercedes-Benz GLC</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Audi Q5</v>
-      </c>
-      <c r="D20" t="str">
-        <v>Lexus RX</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>ELECTRIC VEHICLES:</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Tesla Model 3</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Tesla Model Y</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Chevrolet Bolt</v>
-      </c>
-      <c r="D23" t="str">
-        <v>Nissan Leaf</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Ford Mustang Mach-E</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Hyundai Ioniq 5</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Kia EV6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>FOCUS ON RECENT YEARS:</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Start with 2020-2025 model years for maximum relevance</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Add older years (2015-2019) based on customer demand</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Consider discontinued models that are still common on roads</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B28"/>
   </ignoredErrors>
 </worksheet>
 </file>